--- a/src/main/resources/technologyStack/技术栈.xlsx
+++ b/src/main/resources/technologyStack/技术栈.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="技术分享" sheetId="5" r:id="rId1"/>
-    <sheet name="技术学习" sheetId="6" r:id="rId2"/>
+    <sheet name="JAVA技术栈" sheetId="6" r:id="rId2"/>
+    <sheet name="运维技术栈" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">技术学习!$A$1:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JAVA技术栈!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,10 +273,6 @@
   </si>
   <si>
     <t>秘钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,10 +464,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1319,10 +1316,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>35</v>
@@ -1359,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1378,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
@@ -1393,7 +1391,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -1427,7 +1425,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>42</v>
@@ -1446,7 +1444,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>50</v>
@@ -1461,7 +1459,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>48</v>
@@ -1477,49 +1475,51 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>51</v>
+      <c r="A9" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43826</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43827</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
+    <row r="10" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="5">
-        <v>43826</v>
-      </c>
-      <c r="E10" s="5">
-        <v>43827</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>76</v>
+    <row r="11" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -1527,29 +1527,25 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>75</v>
+    <row r="12" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1559,10 +1555,12 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -1572,12 +1570,10 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
+    <row r="15" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -1587,12 +1583,16 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -1600,13 +1600,11 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="17" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1615,11 +1613,11 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
+    <row r="18" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1628,11 +1626,11 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
+    <row r="19" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1641,13 +1639,11 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1656,13 +1652,11 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="21" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1671,10 +1665,12 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -1684,16 +1680,12 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>32</v>
-      </c>
+    <row r="23" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
@@ -1702,162 +1694,102 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F30" s="5"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>67</v>
-      </c>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
@@ -1905,118 +1837,452 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G34"/>
-  <mergeCells count="6">
+  <autoFilter ref="A1:G23">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="学习中"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A5:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39">
+      <formula1>"未开始,学习中,学习结束"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="47.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="131.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35">
       <formula1>"未开始,学习中,学习结束"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/technologyStack/技术栈.xlsx
+++ b/src/main/resources/technologyStack/技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技术分享" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,142 +189,147 @@
     <t>学习中</t>
   </si>
   <si>
+    <t>持久层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>JavaBean映射工具库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dozer框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Java对象跟json的转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectMapper框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbpm4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连接池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiKariCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从备份学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程过程调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elasticsearch、Logstash和Kibana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows搭建sftp文件服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitvise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux搭建sftp文件服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamviewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、自动生成工具：generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系型数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Lombok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注释，避免增加Get,Set,构造类等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持久层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mybatis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-  </si>
-  <si>
-    <t>JavaBean映射工具库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dozer框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现Java对象跟json的转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectMapper框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jbpm4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库连接池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HiKariCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Druid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主从备份学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程过程调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elasticsearch、Logstash和Kibana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows搭建sftp文件服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitvise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux搭建sftp文件服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teamviewer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、自动生成工具：generator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系型数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbase</t>
+    <t>消除模板代码：
+便捷的生成比较复杂的代码，例如一个POJO要转化成构建器模式的形式，只需要一个注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,6 +483,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1320,18 +1331,18 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.375" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="56.875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
@@ -1345,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>35</v>
@@ -1387,7 +1398,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -1400,11 +1411,11 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
@@ -1421,17 +1432,19 @@
         <v>43827</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5">
         <v>43826</v>
@@ -1440,49 +1453,49 @@
         <v>43827</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5">
         <v>43826</v>
@@ -1493,54 +1506,58 @@
       <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5">
+        <v>43827</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43833</v>
+      </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
@@ -1551,7 +1568,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -1566,7 +1583,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -1579,24 +1596,24 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -1609,7 +1626,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -1622,20 +1639,20 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1648,7 +1665,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1661,35 +1678,39 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="5">
+        <v>43827</v>
+      </c>
+      <c r="E22" s="5">
+        <v>43833</v>
+      </c>
       <c r="F22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -1700,7 +1721,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
@@ -1709,7 +1730,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
@@ -1718,7 +1739,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
@@ -1727,7 +1748,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -1736,7 +1757,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -1745,7 +1766,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -1754,7 +1775,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -1763,7 +1784,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -1772,7 +1793,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -1781,7 +1802,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
@@ -1790,7 +1811,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
@@ -1799,7 +1820,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
@@ -1808,7 +1829,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
@@ -1817,7 +1838,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
@@ -1826,7 +1847,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
@@ -1835,7 +1856,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G23">
@@ -1867,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1893,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>35</v>
@@ -1907,16 +1928,16 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -1931,7 +1952,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1944,7 +1965,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1957,7 +1978,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1969,10 +1990,14 @@
         <v>12</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5">
+        <v>43827</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43833</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -1987,7 +2012,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -2000,11 +2025,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="131.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2012,59 +2037,59 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="6"/>
     </row>

--- a/src/main/resources/technologyStack/技术栈.xlsx
+++ b/src/main/resources/technologyStack/技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技术分享" sheetId="5" r:id="rId1"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HiKariCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Druid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +326,10 @@
   <si>
     <t>消除模板代码：
 便捷的生成比较复杂的代码，例如一个POJO要转化成构建器模式的形式，只需要一个注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiKariCP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,6 +475,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -483,12 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,7 +865,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -899,7 +899,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -917,7 +917,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -949,7 +949,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -971,7 +971,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -993,7 +993,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1039,7 +1039,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1330,8 +1330,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>35</v>
@@ -1369,7 +1369,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1390,7 +1390,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1435,16 +1435,16 @@
         <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="5">
         <v>43826</v>
@@ -1458,7 +1458,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
@@ -1495,25 +1495,25 @@
         <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="5">
-        <v>43826</v>
+        <v>43839</v>
       </c>
       <c r="E9" s="5">
-        <v>43827</v>
+        <v>43847</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="11" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1541,26 +1541,26 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>55</v>
+      <c r="A12" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
-        <v>43827</v>
+        <v>43839</v>
       </c>
       <c r="E12" s="5">
-        <v>43833</v>
+        <v>43847</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1588,7 +1588,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="16" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="19" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1683,28 +1683,28 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5">
-        <v>43827</v>
+        <v>43839</v>
       </c>
       <c r="E22" s="5">
-        <v>43833</v>
+        <v>43847</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -1721,7 +1721,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
@@ -1730,7 +1730,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
@@ -1739,7 +1739,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
@@ -1748,7 +1748,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -1757,7 +1757,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -1766,7 +1766,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -1775,7 +1775,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -1784,7 +1784,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -1793,7 +1793,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="14"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -1802,7 +1802,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
@@ -1811,7 +1811,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
@@ -1820,7 +1820,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="14"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
@@ -1829,7 +1829,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="14"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
@@ -1838,7 +1838,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="14"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
@@ -1847,7 +1847,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="14"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
@@ -1856,7 +1856,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="14"/>
+      <c r="G39" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G23">
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>35</v>
@@ -1942,7 +1942,7 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1957,7 +1957,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1991,18 +1991,18 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5">
-        <v>43827</v>
+        <v>43833</v>
       </c>
       <c r="E6" s="5">
-        <v>43833</v>
+        <v>43847</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2017,7 +2017,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2048,13 +2048,13 @@
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2065,11 +2065,11 @@
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>

--- a/src/main/resources/technologyStack/技术栈.xlsx
+++ b/src/main/resources/technologyStack/技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技术分享" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JAVA技术栈!$A$1:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">运维技术栈!$A$1:$G$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -865,7 +866,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1330,8 +1331,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1886,10 +1887,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1926,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
@@ -1941,7 +1943,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +1958,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>31</v>
@@ -1969,7 +1971,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -2012,7 +2014,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -2025,11 +2027,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2046,7 +2048,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2063,7 +2065,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
@@ -2078,7 +2080,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
@@ -2301,6 +2303,13 @@
       <c r="G35" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G12">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="学习中"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A8"/>

--- a/src/main/resources/technologyStack/技术栈.xlsx
+++ b/src/main/resources/technologyStack/技术栈.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="技术分享" sheetId="5" r:id="rId1"/>
     <sheet name="JAVA技术栈" sheetId="6" r:id="rId2"/>
     <sheet name="运维技术栈" sheetId="7" r:id="rId3"/>
+    <sheet name="国金项目知识点汇总" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JAVA技术栈!$A$1:$G$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">运维技术栈!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JAVA技术栈!$A$1:$H$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">运维技术栈!$A$1:$H$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dozer框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实现Java对象跟json的转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,6 +328,114 @@
   </si>
   <si>
     <t>HiKariCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习成本偏高，后续安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>RabbitMq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMq集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dozer框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、CAP原则 和 ACID原则 --已学习
+2、Redis锁
+3、事务和LUA脚本
+4、持久化
+5、过期策略以及内存淘汰机制
+6、缓存雪崩、缓存穿透
+7、分区
+4、哨兵和复制
+5、集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、jenkins-gradle-springboot：已部署测试
+2、jenkins-gradle-tomcat：
+未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dozer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个对象之间属性转换的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术栈明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">StringUtils </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作对象是 Java.lang.String 类型的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new TypeReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk1.7开始引入，内部方法都是static方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectMapper类可以将下列类型进行相互转换：实体对象与json字符串、byte数组
+list集合与json字符串
+map与json字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +587,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -490,6 +598,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,7 +980,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -900,7 +1014,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -918,7 +1032,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -928,7 +1042,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -938,7 +1052,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -950,7 +1064,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -960,7 +1074,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -972,7 +1086,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -982,7 +1096,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -994,7 +1108,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1118,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1026,7 +1140,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1040,7 +1154,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1329,10 +1443,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1340,13 +1454,14 @@
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="56.875" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,527 +1472,645 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5">
-        <v>43826</v>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="5">
         <v>43826</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="5">
+        <v>43826</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="3"/>
+      <c r="E6" s="5">
         <v>43826</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F6" s="5">
         <v>43827</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="5">
         <v>43826</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F7" s="5">
         <v>43827</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5">
         <v>43839</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="5">
         <v>43847</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="168.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43839</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43847</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <v>43839</v>
-      </c>
-      <c r="E12" s="5">
-        <v>43847</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="5">
+        <v>43847</v>
+      </c>
+      <c r="F18" s="5">
+        <v>43864</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5">
+        <v>43839</v>
+      </c>
+      <c r="F23" s="5">
+        <v>43847</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5">
-        <v>43839</v>
-      </c>
-      <c r="E22" s="5">
-        <v>43847</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="D25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="5">
+        <v>43847</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43864</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G26" s="5"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G27" s="5"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G28" s="5"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G29" s="5"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G30" s="5"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G31" s="5"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G32" s="5"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G33" s="5"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G34" s="5"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G35" s="5"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G36" s="5"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G37" s="5"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G38" s="5"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G23">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:H25">
+    <filterColumn colId="6">
       <filters>
         <filter val="学习中"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="5">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40">
       <formula1>"未开始,学习中,学习结束"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25">
+      <formula1>"A,B,C,D"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1888,10 +2121,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1899,13 +2132,14 @@
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1916,122 +2150,154 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="D3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43845</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43868</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="5">
         <v>43833</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>43847</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2039,272 +2305,331 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43833</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43847</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43833</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43847</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:H14">
+    <filterColumn colId="6">
       <filters>
         <filter val="学习中"/>
       </filters>
@@ -2315,12 +2640,141 @@
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35">
       <formula1>"未开始,学习中,学习结束"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
+      <formula1>"A,B,C,D"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/technologyStack/技术栈.xlsx
+++ b/src/main/resources/technologyStack/技术栈.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="技术分享" sheetId="5" r:id="rId1"/>
     <sheet name="JAVA技术栈" sheetId="6" r:id="rId2"/>
     <sheet name="运维技术栈" sheetId="7" r:id="rId3"/>
     <sheet name="国金项目知识点汇总" sheetId="8" r:id="rId4"/>
+    <sheet name="邮储项目知识点汇总" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JAVA技术栈!$A$1:$H$25</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,6 +437,25 @@
     <t>ObjectMapper类可以将下列类型进行相互转换：实体对象与json字符串、byte数组
 list集合与json字符串
 map与json字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dozermapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dozermapper.map(对象1，对象2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrays.asList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Jaxb2Marshaller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,6 +610,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,12 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,7 +1034,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1032,7 +1052,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1042,7 +1062,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1072,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1064,7 +1084,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1094,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1086,7 +1106,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1116,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1108,7 +1128,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1138,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1140,7 +1160,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1154,7 +1174,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1488,7 +1508,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1512,7 +1532,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>85</v>
       </c>
@@ -1528,7 +1548,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1544,7 +1564,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1580,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1584,7 +1604,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -1606,7 +1626,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1644,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -1704,7 +1724,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="168.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1728,7 +1748,7 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1744,7 +1764,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1762,7 +1782,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1882,7 +1902,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1904,7 +1924,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2184,7 +2204,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2206,7 +2226,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
@@ -2222,7 +2242,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -2262,7 +2282,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2280,7 +2300,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2657,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2676,102 +2696,220 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/technologyStack/技术栈.xlsx
+++ b/src/main/resources/technologyStack/技术栈.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +456,48 @@
   </si>
   <si>
     <t>Jaxb2Marshaller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java 关键字
+Java中的二元运算符，左边是对象，右边是类；当对象是右边类或子类所创建对象时，返回true；否则，返回false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk动态代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cglib字节码动态生成代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot-Aspect切面拦截器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解形式：Aspect
+JDK动态代理 和 CGLIB代理区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解：Scheduled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate validator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,6 +657,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1034,7 +1079,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1052,7 +1097,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1107,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1117,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1084,7 +1129,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1139,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1106,7 +1151,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1161,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1128,7 +1173,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1138,7 +1183,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1205,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1174,7 +1219,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1508,7 +1553,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1532,7 +1577,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>85</v>
       </c>
@@ -1548,7 +1593,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1564,7 +1609,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1580,7 +1625,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1604,7 +1649,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -1626,7 +1671,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1644,7 +1689,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -1724,7 +1769,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="168.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1748,7 +1793,7 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1764,7 +1809,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1782,7 +1827,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1902,7 +1947,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1924,7 +1969,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2204,7 +2249,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2226,7 +2271,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
@@ -2242,7 +2287,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -2282,7 +2327,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2300,7 +2345,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2801,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2843,29 +2888,49 @@
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -2907,12 +2972,9 @@
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/technologyStack/技术栈.xlsx
+++ b/src/main/resources/technologyStack/技术栈.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="121">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,14 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dozermapper.map(对象1，对象2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrays.asList()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Arrays</t>
   </si>
   <si>
@@ -480,15 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注解形式：Aspect
-JDK动态代理 和 CGLIB代理区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注解：Scheduled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,7 +480,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注解形式：Aspect （类：ControllerAroundProcessor）
+1、JDK动态代理 和 CGLIB代理区别
+2、测试 instanceof
+3、RequestContextHolder、ServletRequestAttributes、HttpServletRequest
+4、ProceedingJoinPoint、Signature、MethodSignature
+5、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hibernate validator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GjResponse&lt;Object&gt; gjResponse = JSON.parseObject(data.toString(), new TypeReference&lt;GjResponse&lt;Object&gt;&gt;() {
+            })</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrays.asList()
+一般适用于初始化一个定长list，并赋值,
+例如：List&lt;String&gt; countrys = Arrays.asList("中国","日本","美国");
+当前list不能做添加和删除元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dozermapper.map(对象1，对象2)
+和 BeanUtils.copyProperties 区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jdk8-List.stream()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2723,7 +2748,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2756,11 +2781,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
@@ -2846,131 +2873,158 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.25" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="B3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
